--- a/Data/EC/NIT-9006282212.xlsx
+++ b/Data/EC/NIT-9006282212.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5380B6-261D-442B-A599-9B65D63B4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A4349E-5DFC-476F-A238-3B59A347B165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{100AD782-B06C-47E2-BE7E-8AAAB58A91A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12D2B578-DD33-405B-860F-3233815B8AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,16 +71,16 @@
     <t>ORLANDO ANTONIO LORDUY FLOREZ</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1047480732</t>
+  </si>
+  <si>
+    <t>FREDDY JOHANES VARGAS RAMIREZ</t>
+  </si>
+  <si>
     <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1047480732</t>
-  </si>
-  <si>
-    <t>FREDDY JOHANES VARGAS RAMIREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -179,22 +179,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -394,23 +394,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,10 +438,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +494,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3C78F0-CFEB-DCDB-AF6C-85D574CE1B00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8800776-218C-EDA5-9431-835AE36FA740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87567230-8490-41ED-962C-52136C5D6897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C10CC6-4C26-4E3E-B6AE-5C5CC6EF49DF}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1037,19 +1037,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>120000</v>
+        <v>36000</v>
       </c>
       <c r="G17" s="18">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1060,19 +1060,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>36000</v>
+        <v>120000</v>
       </c>
       <c r="G18" s="18">
-        <v>900000</v>
+        <v>3000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1083,13 +1083,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="F19" s="24">
         <v>36000</v>
